--- a/Study2_classification.xlsx
+++ b/Study2_classification.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruger\Dropbox\parser grammar python github\parser-grammar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5192DF46-1CB8-4D35-90CE-251BA95362CE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1F030A-E7B9-4706-ADBC-47F9915FA6BA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3893" yWindow="368" windowWidth="17894" windowHeight="13319" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>A</t>
   </si>
@@ -73,6 +73,30 @@
   </si>
   <si>
     <t>a3 = v....s (excl a1-2)</t>
+  </si>
+  <si>
+    <t>b1</t>
+  </si>
+  <si>
+    <t>b1 = fronted infinitival clause</t>
+  </si>
+  <si>
+    <t>b2</t>
+  </si>
+  <si>
+    <t>b2 = extremely marginal</t>
+  </si>
+  <si>
+    <t>b3</t>
+  </si>
+  <si>
+    <t>b3 = long distance HM</t>
+  </si>
+  <si>
+    <t>d1</t>
+  </si>
+  <si>
+    <t>d1 = model is too lenient</t>
   </si>
 </sst>
 </file>
@@ -424,18 +448,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J126"/>
+  <dimension ref="A1:M126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="10" max="10" width="57.3984375" customWidth="1"/>
+    <col min="7" max="8" width="7.796875" customWidth="1"/>
+    <col min="13" max="13" width="57.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -449,16 +474,28 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>20</v>
       </c>
@@ -468,17 +505,23 @@
       <c r="E2">
         <v>49</v>
       </c>
-      <c r="F2">
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="I2">
         <v>8</v>
       </c>
-      <c r="G2">
+      <c r="J2">
         <v>13</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>24</v>
       </c>
@@ -489,16 +532,22 @@
         <v>54</v>
       </c>
       <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="I3">
         <v>16</v>
       </c>
-      <c r="G3">
+      <c r="J3">
         <v>15</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="M3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>33</v>
       </c>
@@ -508,17 +557,23 @@
       <c r="E4">
         <v>86</v>
       </c>
-      <c r="F4">
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
         <v>34</v>
       </c>
-      <c r="G4">
+      <c r="J4">
         <v>42</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="M4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>35</v>
       </c>
@@ -529,16 +584,22 @@
         <v>186</v>
       </c>
       <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="I5">
         <v>36</v>
       </c>
-      <c r="G5">
+      <c r="J5">
         <v>108</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="M5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>52</v>
       </c>
@@ -548,14 +609,17 @@
       <c r="E6">
         <v>211</v>
       </c>
-      <c r="F6">
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
         <v>65</v>
       </c>
-      <c r="G6">
+      <c r="J6">
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>59</v>
       </c>
@@ -565,17 +629,23 @@
       <c r="E7">
         <v>436</v>
       </c>
-      <c r="F7">
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="I7">
         <v>71</v>
       </c>
-      <c r="G7">
+      <c r="J7">
         <v>162</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="M7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>78</v>
       </c>
@@ -586,16 +656,19 @@
         <v>469</v>
       </c>
       <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="I8">
         <v>72</v>
       </c>
-      <c r="G8">
+      <c r="J8">
         <v>179</v>
       </c>
-      <c r="J8" t="s">
+      <c r="M8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>85</v>
       </c>
@@ -605,17 +678,20 @@
       <c r="E9">
         <v>573</v>
       </c>
-      <c r="F9">
+      <c r="I9">
         <v>95</v>
       </c>
-      <c r="G9">
+      <c r="J9">
         <v>184</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="M9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>91</v>
       </c>
@@ -625,14 +701,17 @@
       <c r="E10">
         <v>531</v>
       </c>
-      <c r="F10">
+      <c r="I10">
         <v>104</v>
       </c>
-      <c r="G10">
+      <c r="J10">
         <v>205</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>102</v>
       </c>
@@ -642,14 +721,20 @@
       <c r="E11">
         <v>535</v>
       </c>
-      <c r="F11">
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
         <v>133</v>
       </c>
-      <c r="G11">
+      <c r="J11">
         <v>252</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="M11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>103</v>
       </c>
@@ -659,14 +744,20 @@
       <c r="E12">
         <v>564</v>
       </c>
-      <c r="F12">
+      <c r="I12">
         <v>145</v>
       </c>
-      <c r="G12">
+      <c r="J12">
         <v>321</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="M12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>105</v>
       </c>
@@ -676,14 +767,20 @@
       <c r="E13">
         <v>586</v>
       </c>
-      <c r="F13">
+      <c r="I13">
         <v>154</v>
       </c>
-      <c r="G13">
+      <c r="J13">
         <v>360</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="M13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>114</v>
       </c>
@@ -693,14 +790,17 @@
       <c r="E14">
         <v>587</v>
       </c>
-      <c r="F14">
+      <c r="I14">
         <v>193</v>
       </c>
-      <c r="G14">
+      <c r="J14">
         <v>399</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>116</v>
       </c>
@@ -710,14 +810,20 @@
       <c r="E15">
         <v>602</v>
       </c>
-      <c r="F15">
+      <c r="I15">
         <v>198</v>
       </c>
-      <c r="G15">
+      <c r="J15">
         <v>424</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="M15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>118</v>
       </c>
@@ -727,14 +833,14 @@
       <c r="E16">
         <v>620</v>
       </c>
-      <c r="F16">
+      <c r="I16">
         <v>201</v>
       </c>
-      <c r="G16">
+      <c r="J16">
         <v>437</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>120</v>
       </c>
@@ -744,14 +850,17 @@
       <c r="E17">
         <v>623</v>
       </c>
-      <c r="F17">
+      <c r="I17">
         <v>238</v>
       </c>
-      <c r="G17">
+      <c r="J17">
         <v>458</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="K17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>124</v>
       </c>
@@ -761,14 +870,17 @@
       <c r="E18">
         <v>626</v>
       </c>
-      <c r="F18">
+      <c r="I18">
         <v>264</v>
       </c>
-      <c r="G18">
+      <c r="J18">
         <v>465</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="K18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>128</v>
       </c>
@@ -778,14 +890,14 @@
       <c r="E19">
         <v>640</v>
       </c>
-      <c r="F19">
+      <c r="I19">
         <v>314</v>
       </c>
-      <c r="G19">
+      <c r="J19">
         <v>475</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>129</v>
       </c>
@@ -795,14 +907,17 @@
       <c r="E20">
         <v>645</v>
       </c>
-      <c r="F20">
+      <c r="I20">
         <v>305</v>
       </c>
-      <c r="G20">
+      <c r="J20">
         <v>490</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="K20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>132</v>
       </c>
@@ -812,14 +927,17 @@
       <c r="E21">
         <v>742</v>
       </c>
-      <c r="F21">
+      <c r="I21">
         <v>309</v>
       </c>
-      <c r="G21">
+      <c r="J21">
         <v>574</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="K21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>141</v>
       </c>
@@ -829,14 +947,17 @@
       <c r="E22">
         <v>834</v>
       </c>
-      <c r="F22">
+      <c r="I22">
         <v>310</v>
       </c>
-      <c r="G22">
+      <c r="J22">
         <v>670</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="K22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>153</v>
       </c>
@@ -846,14 +967,14 @@
       <c r="E23">
         <v>850</v>
       </c>
-      <c r="F23">
+      <c r="I23">
         <v>389</v>
       </c>
-      <c r="G23">
+      <c r="J23">
         <v>673</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>156</v>
       </c>
@@ -863,14 +984,14 @@
       <c r="E24">
         <v>922</v>
       </c>
-      <c r="F24">
+      <c r="I24">
         <v>397</v>
       </c>
-      <c r="G24">
+      <c r="J24">
         <v>718</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>161</v>
       </c>
@@ -880,14 +1001,14 @@
       <c r="E25">
         <v>968</v>
       </c>
-      <c r="F25">
+      <c r="I25">
         <v>412</v>
       </c>
-      <c r="G25">
+      <c r="J25">
         <v>722</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>167</v>
       </c>
@@ -897,238 +1018,247 @@
       <c r="E26">
         <v>577</v>
       </c>
-      <c r="F26">
+      <c r="I26">
         <v>413</v>
       </c>
-      <c r="G26">
+      <c r="J26">
         <v>761</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>170</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
-      <c r="F27">
+      <c r="I27">
         <v>432</v>
       </c>
-      <c r="G27">
+      <c r="J27">
         <v>801</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="K27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>173</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
-      <c r="F28">
+      <c r="I28">
         <v>447</v>
       </c>
-      <c r="G28">
+      <c r="J28">
         <v>826</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="K28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>203</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
-      <c r="F29">
+      <c r="I29">
         <v>496</v>
       </c>
-      <c r="G29">
+      <c r="J29">
         <v>920</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="K29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>209</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
-      <c r="F30">
+      <c r="I30">
         <v>503</v>
       </c>
-      <c r="G30">
+      <c r="J30">
         <v>936</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>231</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
-      <c r="F31">
+      <c r="I31">
         <v>633</v>
       </c>
-      <c r="G31">
+      <c r="J31">
         <v>927</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>236</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
-      <c r="F32">
+      <c r="I32">
         <v>659</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>261</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
-      <c r="F33">
+      <c r="I33">
         <v>705</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>265</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
-      <c r="F34">
+      <c r="I34">
         <v>713</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>275</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
-      <c r="F35">
+      <c r="I35">
         <v>721</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>278</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
-      <c r="F36">
+      <c r="I36">
         <v>775</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>280</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
-      <c r="F37">
+      <c r="I37">
         <v>788</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>292</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
-      <c r="F38">
+      <c r="I38">
         <v>812</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>293</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
-      <c r="F39">
+      <c r="I39">
         <v>853</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>295</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
-      <c r="F40">
+      <c r="I40">
         <v>854</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>298</v>
       </c>
       <c r="B41">
         <v>1</v>
       </c>
-      <c r="F41">
+      <c r="I41">
         <v>932</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>301</v>
       </c>
       <c r="B42">
         <v>1</v>
       </c>
-      <c r="F42">
+      <c r="I42">
         <v>943</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>302</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
-      <c r="F43">
+      <c r="I43">
         <v>948</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>311</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
-      <c r="F44">
+      <c r="I44">
         <v>979</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>344</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
-      <c r="F45">
+      <c r="I45">
         <v>685</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>362</v>
       </c>
@@ -1136,7 +1266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>367</v>
       </c>
@@ -1144,7 +1274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>369</v>
       </c>
